--- a/public/file/user.xlsx
+++ b/public/file/user.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="user" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="manager" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
+    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="manager" sheetId="2" r:id="rId2"/>
+    <sheet name="yourmanager" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>EmailId</t>
   </si>
@@ -42,14 +42,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,19 +375,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -415,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -452,13 +452,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>